--- a/ELF_Base_Framework/src/test/resources/testData/testData.xlsx
+++ b/ELF_Base_Framework/src/test/resources/testData/testData.xlsx
@@ -1,17 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Camper" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="126">
   <si>
     <t>no</t>
   </si>
@@ -118,13 +125,292 @@
   </si>
   <si>
     <t>vyshali@gmail.com</t>
+  </si>
+  <si>
+    <t>Audi</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>12222</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>01/01/2000</t>
+  </si>
+  <si>
+    <t>17777</t>
+  </si>
+  <si>
+    <t>keerthana</t>
+  </si>
+  <si>
+    <t>Sj</t>
+  </si>
+  <si>
+    <t>abcdeggh</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>fscqdygcqdycdygcdy</t>
+  </si>
+  <si>
+    <t>Farmer</t>
+  </si>
+  <si>
+    <t>leapp.tricentis.com/101/app.php</t>
+  </si>
+  <si>
+    <t>01/01/2023</t>
+  </si>
+  <si>
+    <t>500000000</t>
+  </si>
+  <si>
+    <t>Full Coverage</t>
+  </si>
+  <si>
+    <t>Bonus 1</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>keerthanaraosj@gmail.com</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>123keerth</t>
+  </si>
+  <si>
+    <t>hiiiii</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>10/10/2021</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>KA51K1068</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Cool</t>
+  </si>
+  <si>
+    <t>Chethu</t>
+  </si>
+  <si>
+    <t>10/10/1961</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>3rd cross,JP Nagar</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>560058</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>https:/www.coolwebsite.com</t>
+  </si>
+  <si>
+    <t>11/30/2022</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>SJ</t>
+  </si>
+  <si>
+    <t>Banglore</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Abc123456789</t>
+  </si>
+  <si>
+    <t>9148064113</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>414521</t>
+  </si>
+  <si>
+    <t>11/11/2022</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>KA01JL7896</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>03/03/1999</t>
+  </si>
+  <si>
+    <t>8-1212/NEHRU NAGAR</t>
+  </si>
+  <si>
+    <t>585106</t>
+  </si>
+  <si>
+    <t>google.com</t>
+  </si>
+  <si>
+    <t>11/11/2023</t>
+  </si>
+  <si>
+    <t>soma123@gmail.com</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>soma</t>
+  </si>
+  <si>
+    <t>Soma@123</t>
+  </si>
+  <si>
+    <t>I have completed the insurance process of Camper</t>
+  </si>
+  <si>
+    <t>keerthana123@gmail.com</t>
+  </si>
+  <si>
+    <t>keerthana@123</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>chikoo</t>
+  </si>
+  <si>
+    <t>banglore</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>11/11/2019</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>Soma</t>
+  </si>
+  <si>
+    <t>Shekar</t>
+  </si>
+  <si>
+    <t>12/30/1996</t>
+  </si>
+  <si>
+    <t>nammuru mysuru</t>
+  </si>
+  <si>
+    <t>573565</t>
+  </si>
+  <si>
+    <t>Mysuru</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>bike_Decko.com</t>
+  </si>
+  <si>
+    <t>I have completed the insurance process of MotorCycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mysuru</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>EFG</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>http://google.com</t>
+  </si>
+  <si>
+    <t>11/30/2023</t>
+  </si>
+  <si>
+    <t>I have completed the insurance process of truck</t>
+  </si>
+  <si>
+    <t>ABCDEF</t>
+  </si>
+  <si>
+    <t>keerthana1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +425,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,9 +454,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -226,7 +521,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -261,7 +556,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -438,21 +733,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -461,7 +756,7 @@
     <col min="6" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -484,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -507,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -530,7 +825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -553,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -576,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -599,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -634,4 +929,718 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB1"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="P1" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="30.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="23" max="23" width="25.5703125" customWidth="1"/>
+    <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="2">
+        <v>14525525</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="W1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:23" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1"/>
+    <hyperlink ref="L1" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AC1"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" customWidth="1"/>
+    <col min="24" max="24" width="27.28515625" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" customWidth="1"/>
+    <col min="27" max="27" width="18.85546875" customWidth="1"/>
+    <col min="28" max="28" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="S1" r:id="rId1" display="https://coolwebsite.com"/>
+    <hyperlink ref="X1" r:id="rId2"/>
+    <hyperlink ref="AB1" r:id="rId3"/>
+    <hyperlink ref="AA1" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:BI16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:27" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="V1" r:id="rId1"/>
+    <hyperlink ref="Y1" r:id="rId2"/>
+    <hyperlink ref="Z1" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AC1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AM8" sqref="AM8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="16" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="X1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AS22" sqref="AS22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:27" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="V1" r:id="rId1"/>
+    <hyperlink ref="Y1" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>